--- a/data/trans_dic/P24D-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P24D-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.5681905181838165</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.476791995872943</v>
+        <v>0.4767919958729429</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2189937773033171</v>
@@ -697,7 +697,7 @@
         <v>0.6027529496041408</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4682887016207009</v>
+        <v>0.4682887016207007</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1836864488671302</v>
+        <v>0.1872356251190645</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5888611039464782</v>
+        <v>0.5867901666273232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5253438977393521</v>
+        <v>0.5182411728815562</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3417132986431655</v>
+        <v>0.3449298152248935</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06969194307308089</v>
+        <v>0.07653358501777516</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5277987758636765</v>
+        <v>0.5197971454117877</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4523473780056168</v>
+        <v>0.4514511734908704</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3812852598862333</v>
+        <v>0.3852849311160053</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1604388729629171</v>
+        <v>0.1643135212577216</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5919261520289425</v>
+        <v>0.603016061282912</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5334674516756253</v>
+        <v>0.5249056215827277</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.392498057970872</v>
+        <v>0.3874341839795165</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3522613085248079</v>
+        <v>0.3621565788826367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7541508697031941</v>
+        <v>0.7563052468838244</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7154115038000297</v>
+        <v>0.7192003247042977</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5742067822752316</v>
+        <v>0.5794499136713657</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2574618444018531</v>
+        <v>0.2609593680689826</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.732505123169</v>
+        <v>0.7390413840983943</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6828746871112715</v>
+        <v>0.6815976334814632</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5647426503399149</v>
+        <v>0.5758860766316004</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2828975303137651</v>
+        <v>0.287735922161196</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7202034452585584</v>
+        <v>0.726245072120636</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6756151691946224</v>
+        <v>0.6791848109046621</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5450822133328562</v>
+        <v>0.544490917347928</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2650148978018735</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4311091889512005</v>
+        <v>0.4311091889512007</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3705555452978391</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2749031807281795</v>
+        <v>0.2756074166093478</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4360052817874133</v>
+        <v>0.4304556028163076</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1462429929933079</v>
+        <v>0.145422037120597</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2938681930121946</v>
+        <v>0.2868106354887204</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3299505689523437</v>
+        <v>0.3234731668376777</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3508858954601909</v>
+        <v>0.3551790204331003</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1973788979253372</v>
+        <v>0.1915196094021671</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3446531365019468</v>
+        <v>0.3433589315158517</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.318380623156748</v>
+        <v>0.3141792241808866</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4196742112605684</v>
+        <v>0.4169445327257746</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1825788430499184</v>
+        <v>0.1835670385209951</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3384394366244866</v>
+        <v>0.3398770035809386</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4184357415725309</v>
+        <v>0.4147728180249023</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5815966768711539</v>
+        <v>0.5780704205806855</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2590938283055997</v>
+        <v>0.2517685707822721</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4901393029721539</v>
+        <v>0.5001477126354142</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5069163851056609</v>
+        <v>0.5035056010284955</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5223119370396393</v>
+        <v>0.5267589612686608</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.351491964304819</v>
+        <v>0.3434003661777414</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5271344486915894</v>
+        <v>0.5246486677235431</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4304575794337892</v>
+        <v>0.4310871089094431</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5300560991027615</v>
+        <v>0.5318425148093187</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2724236147356705</v>
+        <v>0.2807602079601126</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4804451336741605</v>
+        <v>0.478235582662873</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.4246633772693362</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.4550524069926983</v>
+        <v>0.4550524069926984</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1336221892552666</v>
+        <v>0.1302007825239703</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3064294947383651</v>
+        <v>0.3059266436006869</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2763413448220184</v>
+        <v>0.278678317008198</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2849344249078428</v>
+        <v>0.2932435971614962</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.20240832718516</v>
+        <v>0.2020668037584585</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4438188658512857</v>
+        <v>0.4507948687228611</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3830321032549509</v>
+        <v>0.3872303534516027</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4225877270917763</v>
+        <v>0.4168251628233706</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.181821744186316</v>
+        <v>0.1816310814871285</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3947348392535149</v>
+        <v>0.3951839297934053</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3548062647673359</v>
+        <v>0.3465933373336906</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3802083825384148</v>
+        <v>0.3851907198176382</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2672502947057007</v>
+        <v>0.2629275879914637</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4872774537166139</v>
+        <v>0.481563353173376</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4655171719287506</v>
+        <v>0.4700290714538722</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.50515132702453</v>
+        <v>0.5148491054727593</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3849980333466191</v>
+        <v>0.3818013118522943</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6798252918068857</v>
+        <v>0.6744676282958585</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6004365605257579</v>
+        <v>0.6104376129030833</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6326704250606555</v>
+        <v>0.6268957272611527</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.287911538945964</v>
+        <v>0.2850447262155998</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5321207626959598</v>
+        <v>0.5285783764960149</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5001785678904503</v>
+        <v>0.496950884983283</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5314605464305436</v>
+        <v>0.5273485278607811</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2232431311711716</v>
+        <v>0.2301311740580337</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3620378083686498</v>
+        <v>0.3700479818636218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5444982826579964</v>
+        <v>0.5387887594054364</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2479951074801402</v>
+        <v>0.2453833563318253</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3040805210851534</v>
+        <v>0.3085024667675521</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5911252783597648</v>
+        <v>0.5815528294833444</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4230481284953002</v>
+        <v>0.4266931019982189</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2925795006278481</v>
+        <v>0.2970137812565302</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2812047295734758</v>
+        <v>0.2804415952476132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4971852889427897</v>
+        <v>0.4931385170780354</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5189956163945306</v>
+        <v>0.5198252670947555</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.309358508242342</v>
+        <v>0.312820918856653</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3655210311598968</v>
+        <v>0.3651911768242876</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5574983151360492</v>
+        <v>0.5544906484146469</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7150548622706329</v>
+        <v>0.7137113149161814</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5256826707959512</v>
+        <v>0.5466534447898533</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4962142912661697</v>
+        <v>0.4915930605889597</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7667120988462791</v>
+        <v>0.766772136700123</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6183235092273605</v>
+        <v>0.6286583546291026</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5228603740068869</v>
+        <v>0.5307131303512985</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3955961800771882</v>
+        <v>0.3932673464098076</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6321907282079466</v>
+        <v>0.6315433025178033</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6436956294351776</v>
+        <v>0.6532543287223743</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4963102585709431</v>
+        <v>0.4963833033170979</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.5028306693157716</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07544722638375968</v>
+        <v>0.07544722638375967</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2513383476821695</v>
+        <v>0.2454672425861026</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.425535030875052</v>
+        <v>0.430249223492239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3802143629876946</v>
+        <v>0.3798766059207571</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2477932924619867</v>
+        <v>0.2461171620958763</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.393122954530932</v>
+        <v>0.3924439266061983</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3892426955311992</v>
+        <v>0.4064826860880946</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06347945387869058</v>
+        <v>0.06248780974256967</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2623037850445815</v>
+        <v>0.2781924822271147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4508032720825438</v>
+        <v>0.4535279748704088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4274597752577294</v>
+        <v>0.4244037347002804</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04126854880540497</v>
+        <v>0.03726471368937686</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4480459648774565</v>
+        <v>0.44821380314018</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6536202449120322</v>
+        <v>0.6460455620749059</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5871675492910258</v>
+        <v>0.5898512542479681</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1147035068198185</v>
+        <v>0.1132023425717835</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5087294941727362</v>
+        <v>0.5074091925148678</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6475514176830354</v>
+        <v>0.6424592207126973</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6497809528098865</v>
+        <v>0.6512908020708481</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2231066805788977</v>
+        <v>0.2218126278379194</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4281034393602097</v>
+        <v>0.435550388176909</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6141812956876342</v>
+        <v>0.6138453975656329</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5890714135204027</v>
+        <v>0.5875954112850816</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1297344392412181</v>
+        <v>0.1332280038875628</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.322706564485288</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2613309274957107</v>
+        <v>0.2613309274957108</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.34097131655105</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2607475698278593</v>
+        <v>0.262017183040319</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4279927967251003</v>
+        <v>0.4241947410004592</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3538051346201255</v>
+        <v>0.3592575051084155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1656700884268028</v>
+        <v>0.167124085705945</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.220333593870274</v>
+        <v>0.2197996318649924</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4342354018560078</v>
+        <v>0.4414724590045178</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2171272035520687</v>
+        <v>0.2185079815714658</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1709455753781414</v>
+        <v>0.1662289475117527</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2762223527266492</v>
+        <v>0.2745992972386261</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4693300103460519</v>
+        <v>0.470854113141679</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3255360963464484</v>
+        <v>0.3217954999545312</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1863639174416408</v>
+        <v>0.1867893655515002</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4377628531606937</v>
+        <v>0.4276625556681549</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6471774851430339</v>
+        <v>0.6430196904567421</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5661676346974983</v>
+        <v>0.5802076177568187</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3397039595202927</v>
+        <v>0.346449924193226</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4474689519029915</v>
+        <v>0.4607405699881361</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.684716912847949</v>
+        <v>0.6821249886192933</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4375918561891135</v>
+        <v>0.4417563911161373</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3755562715599109</v>
+        <v>0.3673654049400222</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4126230723404444</v>
+        <v>0.4083691390911368</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.633217691746138</v>
+        <v>0.6368157594477324</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4788696043524685</v>
+        <v>0.4792562657171663</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.319702412197652</v>
+        <v>0.3215940126577148</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3621598896358247</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5157348907253338</v>
+        <v>0.5157348907253337</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.4317960345810729</v>
@@ -1501,7 +1501,7 @@
         <v>0.3861595480435826</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.5618564108916075</v>
+        <v>0.5618564108916076</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.3848039899212898</v>
@@ -1513,7 +1513,7 @@
         <v>0.3733988127860423</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.537741081809155</v>
+        <v>0.5377410818091551</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2906714107831218</v>
+        <v>0.292108473054225</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3163377658912626</v>
+        <v>0.3251838423014236</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2861608095686112</v>
+        <v>0.2999346615662155</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4349201825459474</v>
+        <v>0.4281660803220109</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3566840812451859</v>
+        <v>0.3514529586768325</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4183636243065416</v>
+        <v>0.4205738465809</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3063731406145145</v>
+        <v>0.3132622317076383</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4883898923579352</v>
+        <v>0.4880876181514541</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3390921724957448</v>
+        <v>0.3381048664847998</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3854063132599006</v>
+        <v>0.3831057163176306</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3217987781994287</v>
+        <v>0.3158722646807867</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4836356658223956</v>
+        <v>0.4803333092994501</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4179399448518377</v>
+        <v>0.4174241718034425</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4492199739524672</v>
+        <v>0.4444517722433091</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4361627523630061</v>
+        <v>0.4494865003949004</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5971927509221004</v>
+        <v>0.5943739659784231</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5173929616171536</v>
+        <v>0.5150298608617981</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5733006522138013</v>
+        <v>0.5665912540672668</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4599837544404147</v>
+        <v>0.470984565182255</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6275585366977467</v>
+        <v>0.6272599727710557</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4348840969642381</v>
+        <v>0.4344021824372892</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4757579747405083</v>
+        <v>0.4766015326520622</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4253037817062074</v>
+        <v>0.4217583998558255</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5931994301292498</v>
+        <v>0.5877340879474897</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2400815006143441</v>
+        <v>0.238392558961006</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3325710873752522</v>
+        <v>0.3417651131035398</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4055066217251914</v>
+        <v>0.4106186266545481</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1803461291540314</v>
+        <v>0.1787744649953918</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2469777211311683</v>
+        <v>0.2443967360481022</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3216785324411895</v>
+        <v>0.3190842471209655</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4536601527719771</v>
+        <v>0.4510765989434359</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3071243780295864</v>
+        <v>0.3057688286098089</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2614236769807264</v>
+        <v>0.2585093513633269</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3529175221356253</v>
+        <v>0.3515915661565722</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4527942233183413</v>
+        <v>0.4534070991644391</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2472446428622628</v>
+        <v>0.2483279206226735</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3504715763230518</v>
+        <v>0.3464982022858278</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4578215737790936</v>
+        <v>0.4603509399796002</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.533320182854009</v>
+        <v>0.5299691185695147</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3013389043007345</v>
+        <v>0.3022509396384914</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3850765595611994</v>
+        <v>0.3925320850932288</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4587736775282405</v>
+        <v>0.4628857522605951</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5913111825426997</v>
+        <v>0.5885326813551044</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4602269298502015</v>
+        <v>0.4613710281256352</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3445951720060176</v>
+        <v>0.3447704993343633</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4414595001936757</v>
+        <v>0.4402152706520178</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5425270573445314</v>
+        <v>0.5409080324926685</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3437696870376311</v>
+        <v>0.3425107239132685</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.444054082612383</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.4380242229058431</v>
+        <v>0.438024222905843</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.3214590841093062</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2799921690126399</v>
+        <v>0.2815375829657055</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4375983314005255</v>
+        <v>0.4354526861293562</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3996632121177835</v>
+        <v>0.400652646948449</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3207465042591486</v>
+        <v>0.3200846263691415</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.3178042204807369</v>
+        <v>0.3146560323284813</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.479022985276682</v>
+        <v>0.480757613417101</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4093270889620211</v>
+        <v>0.4105270849277842</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4068875612194174</v>
+        <v>0.4015457525343309</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3004022731049635</v>
+        <v>0.3022655502971323</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.4628205325941617</v>
+        <v>0.4618616833192177</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.4159899018562353</v>
+        <v>0.4145786846894868</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.3661708958803392</v>
+        <v>0.3704022424972979</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3274687868622447</v>
+        <v>0.3313015520276268</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4929542421415309</v>
+        <v>0.494559689594695</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4595690438990279</v>
+        <v>0.4602959068040458</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3942483251732706</v>
+        <v>0.3892210022409142</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3799666579407184</v>
+        <v>0.3827367057278952</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.545888377354917</v>
+        <v>0.5488859933719186</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4774363628215558</v>
+        <v>0.4762806211480431</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4724288256389557</v>
+        <v>0.4710805821773825</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3418427170671687</v>
+        <v>0.3411321607454018</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.5029384449379944</v>
+        <v>0.5058615954984572</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.4596614709656472</v>
+        <v>0.4585571734635802</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.4179911993741403</v>
+        <v>0.419290997686679</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20822</v>
+        <v>21225</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>80368</v>
+        <v>80085</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>55860</v>
+        <v>55105</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>25953</v>
+        <v>26198</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4890</v>
+        <v>5370</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>51688</v>
+        <v>50904</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>33344</v>
+        <v>33278</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>25292</v>
+        <v>25557</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>29444</v>
+        <v>30155</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>138754</v>
+        <v>141354</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>96048</v>
+        <v>94507</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>55846</v>
+        <v>55126</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39932</v>
+        <v>41053</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>102927</v>
+        <v>103221</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>76070</v>
+        <v>76473</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>43612</v>
+        <v>44010</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18065</v>
+        <v>18310</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>71735</v>
+        <v>72375</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50337</v>
+        <v>50243</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>37461</v>
+        <v>38200</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>51918</v>
+        <v>52806</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>168824</v>
+        <v>170240</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>121641</v>
+        <v>122284</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>77556</v>
+        <v>77472</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>52640</v>
+        <v>52775</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>90735</v>
+        <v>89580</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30571</v>
+        <v>30399</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>38820</v>
+        <v>37888</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>39151</v>
+        <v>38382</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>53060</v>
+        <v>53709</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>27800</v>
+        <v>26975</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>34972</v>
+        <v>34841</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>98744</v>
+        <v>97440</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>150799</v>
+        <v>149818</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>63883</v>
+        <v>64228</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>79050</v>
+        <v>79385</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>80125</v>
+        <v>79423</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>121033</v>
+        <v>120299</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>54161</v>
+        <v>52630</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>64747</v>
+        <v>66070</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>60149</v>
+        <v>59744</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>78983</v>
+        <v>79655</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>49507</v>
+        <v>48367</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>53489</v>
+        <v>53237</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>133503</v>
+        <v>133699</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>190461</v>
+        <v>191103</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>95318</v>
+        <v>98235</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>112218</v>
+        <v>111702</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19614</v>
+        <v>19112</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>38928</v>
+        <v>38864</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26620</v>
+        <v>26845</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22670</v>
+        <v>23331</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>19007</v>
+        <v>18975</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>37161</v>
+        <v>37745</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>31180</v>
+        <v>31522</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>27055</v>
+        <v>26686</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>43763</v>
+        <v>43717</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>83197</v>
+        <v>83292</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>63061</v>
+        <v>61601</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>54591</v>
+        <v>55307</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>39228</v>
+        <v>38594</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61902</v>
+        <v>61176</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44844</v>
+        <v>45278</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40190</v>
+        <v>40962</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>36154</v>
+        <v>35853</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56921</v>
+        <v>56473</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48877</v>
+        <v>49691</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>40505</v>
+        <v>40135</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>69298</v>
+        <v>68608</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>112153</v>
+        <v>111407</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>88899</v>
+        <v>88325</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>76309</v>
+        <v>75718</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>37844</v>
+        <v>39011</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46969</v>
+        <v>48008</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>75842</v>
+        <v>75046</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>22275</v>
+        <v>22040</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>30888</v>
+        <v>31337</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>61468</v>
+        <v>60472</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>46009</v>
+        <v>46406</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>23170</v>
+        <v>23521</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>76234</v>
+        <v>76027</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>116202</v>
+        <v>115256</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>128734</v>
+        <v>128940</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>52285</v>
+        <v>52870</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>61962</v>
+        <v>61906</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>72327</v>
+        <v>71937</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>99598</v>
+        <v>99411</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>47216</v>
+        <v>49100</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>50405</v>
+        <v>49936</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>79726</v>
+        <v>79732</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>67247</v>
+        <v>68371</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>41407</v>
+        <v>42029</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>107245</v>
+        <v>106614</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>147755</v>
+        <v>147604</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>159665</v>
+        <v>162036</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>83882</v>
+        <v>83895</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>21195</v>
+        <v>20700</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>38893</v>
+        <v>39324</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>32368</v>
+        <v>32339</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14750</v>
+        <v>14650</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>25726</v>
+        <v>25681</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>22048</v>
+        <v>23024</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2042</v>
+        <v>2010</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>37734</v>
+        <v>40019</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>70704</v>
+        <v>71131</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>60603</v>
+        <v>60169</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3025</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>37783</v>
+        <v>37797</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>59740</v>
+        <v>59048</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>49986</v>
+        <v>50215</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4717</v>
+        <v>4655</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>30283</v>
+        <v>30204</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>42375</v>
+        <v>42042</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>36806</v>
+        <v>36891</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>7178</v>
+        <v>7136</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>61585</v>
+        <v>62656</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>96328</v>
+        <v>96275</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>83515</v>
+        <v>83306</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>9509</v>
+        <v>9765</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>32424</v>
+        <v>32582</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>35840</v>
+        <v>35522</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>31216</v>
+        <v>31697</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>12587</v>
+        <v>12697</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>14323</v>
+        <v>14289</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>29041</v>
+        <v>29525</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>15863</v>
+        <v>15964</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>8357</v>
+        <v>8126</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>52305</v>
+        <v>51998</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>70690</v>
+        <v>70920</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>52505</v>
+        <v>51902</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>23270</v>
+        <v>23323</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>54437</v>
+        <v>53181</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>54195</v>
+        <v>53846</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>49953</v>
+        <v>51192</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>25809</v>
+        <v>26322</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>29089</v>
+        <v>29951</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>45793</v>
+        <v>45620</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>31970</v>
+        <v>32274</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>18359</v>
+        <v>17959</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>78134</v>
+        <v>77329</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>95375</v>
+        <v>95917</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>77236</v>
+        <v>77298</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>39918</v>
+        <v>40155</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>68301</v>
+        <v>68638</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>88334</v>
+        <v>90805</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>56296</v>
+        <v>59006</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>82720</v>
+        <v>81435</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>57218</v>
+        <v>56379</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>80858</v>
+        <v>81285</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>53084</v>
+        <v>54278</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>84765</v>
+        <v>84713</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>134074</v>
+        <v>133684</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>182109</v>
+        <v>181022</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>119064</v>
+        <v>116871</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>175925</v>
+        <v>174724</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>98206</v>
+        <v>98085</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>125441</v>
+        <v>124109</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>85806</v>
+        <v>88427</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>113583</v>
+        <v>113047</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>82999</v>
+        <v>82620</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>110802</v>
+        <v>109506</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>79700</v>
+        <v>81606</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>108920</v>
+        <v>108868</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>171950</v>
+        <v>171759</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>224801</v>
+        <v>225200</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>157361</v>
+        <v>156049</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>215780</v>
+        <v>213792</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>75872</v>
+        <v>75338</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>98492</v>
+        <v>101215</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>103428</v>
+        <v>104732</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>37807</v>
+        <v>37478</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>45744</v>
+        <v>45266</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>66505</v>
+        <v>65968</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>97214</v>
+        <v>96660</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>41556</v>
+        <v>41373</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>131036</v>
+        <v>129575</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>177481</v>
+        <v>176814</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>212518</v>
+        <v>212805</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>85286</v>
+        <v>85660</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>110757</v>
+        <v>109502</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>135586</v>
+        <v>136335</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>136028</v>
+        <v>135173</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>63172</v>
+        <v>63363</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>71323</v>
+        <v>72704</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>94848</v>
+        <v>95698</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>126711</v>
+        <v>126115</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>62272</v>
+        <v>62427</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>172725</v>
+        <v>172813</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>222009</v>
+        <v>221383</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>254633</v>
+        <v>253874</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>118582</v>
+        <v>118148</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>386621</v>
+        <v>388755</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>591586</v>
+        <v>588685</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>470059</v>
+        <v>471222</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>286863</v>
+        <v>286271</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>271555</v>
+        <v>268865</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>464266</v>
+        <v>465947</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>377391</v>
+        <v>378497</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>285206</v>
+        <v>281461</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>671490</v>
+        <v>675655</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1074246</v>
+        <v>1072021</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>872795</v>
+        <v>869834</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>584155</v>
+        <v>590905</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>452178</v>
+        <v>457470</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>666421</v>
+        <v>668591</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>540516</v>
+        <v>541371</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>352600</v>
+        <v>348104</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>324672</v>
+        <v>327039</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>529072</v>
+        <v>531977</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>440186</v>
+        <v>439121</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>331147</v>
+        <v>330202</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>764122</v>
+        <v>762533</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1167363</v>
+        <v>1174148</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>964423</v>
+        <v>962106</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>666824</v>
+        <v>668897</v>
       </c>
     </row>
     <row r="40">
